--- a/Room_Lab_A                                             .xlsx
+++ b/Room_Lab_A                                             .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qasim\Desktop\sitting-Arrangement\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2EFBBD6-15C4-41F4-9468-1626F5EE00CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8F4E1242-A45E-4DAA-9263-AA00678B6011}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2895" windowWidth="23040" windowHeight="12195" xr2:uid="{2CAAEEF6-2BA7-4B2A-AFC7-A5514220C2BA}"/>
+    <workbookView xWindow="3900" yWindow="2895" windowWidth="23040" windowHeight="12195" xr2:uid="{6A08FAE3-9351-4DDC-812F-AAA4E6A1D1BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,7 +375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AAC366-580D-462D-9679-94ED0D8497A7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9817560-2E68-4C72-9551-8263C65D8D4A}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
